--- a/picture/describe.xlsx
+++ b/picture/describe.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>图片</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>swin Transformer中Patch Merging的间隔下采样具体图示</t>
+  </si>
+  <si>
+    <t>2.png</t>
+  </si>
+  <si>
+    <t>Deformable DETR中的偏移量</t>
   </si>
 </sst>
 </file>
@@ -971,13 +977,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="111.875" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
@@ -997,6 +1003,14 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/picture/describe.xlsx
+++ b/picture/describe.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>图片</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Deformable DETR中的偏移量</t>
+  </si>
+  <si>
+    <t>3.png</t>
+  </si>
+  <si>
+    <t>Deformable DETR中的偏移量在不同层级（尺度上进行累加操作）</t>
   </si>
 </sst>
 </file>
@@ -977,13 +983,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="111.875" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
@@ -1011,6 +1017,14 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
